--- a/biology/Zoologie/Bleue_de_France_(race_de_poule)/Bleue_de_France_(race_de_poule).xlsx
+++ b/biology/Zoologie/Bleue_de_France_(race_de_poule)/Bleue_de_France_(race_de_poule).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La Bleue de France ou Pondeuse Cendrée est une poule domestique "hybride" (métis F1 industriel) française. Cette poule pondeuse se trouve sur tous les marchés d'Europe et même ailleurs.
@@ -512,7 +524,9 @@
           <t>Élevage</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Généralement, ce n'est pas une poule de chair, mais plutôt une poule pour la ponte. Elle peut-être confondue avec la poule Limousine ou encore la poule Bleue des Landes.
 </t>
@@ -543,7 +557,9 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle est issue de divers croisements entre la Rhode-Island et la Coucou.
 </t>
@@ -574,11 +590,48 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle commence à pondre à l'âge d'environ 22 semaines (environ cinq mois et demi, six mois) avec généralement 290 œufs dès la première année. Vers la fin de la première année de ponte, elle commence à pondre un jour sur deux et quelquefois un jour sur trois.
-Description
-Crête : Simple
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Bleue_de_France_(race_de_poule)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bleue_de_France_(race_de_poule)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Crête : Simple
 Oreillons : Rouges, blancs ou rarement noirs
 Variétés de Plumage : Seulement cendré
 Masse : Poule : 1,6 kg à 2,5 kg
